--- a/Mifos Automation Excels/Client/4443-CreateActiveCenterwithmeetingattachedasweeklyFriday-Modifymeeting-CancelModifyMeeting.xlsx
+++ b/Mifos Automation Excels/Client/4443-CreateActiveCenterwithmeetingattachedasweeklyFriday-Modifymeeting-CancelModifyMeeting.xlsx
@@ -74,10 +74,10 @@
     <t>center4443</t>
   </si>
   <si>
+    <t>3 April 2015</t>
+  </si>
+  <si>
     <t>verifycancelEditMeeting</t>
-  </si>
-  <si>
-    <t>03 April 2015</t>
   </si>
 </sst>
 </file>
@@ -592,9 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -604,10 +602,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
